--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H2">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I2">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J2">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9727856666666664</v>
+        <v>0.600843</v>
       </c>
       <c r="N2">
-        <v>2.918356999999999</v>
+        <v>1.802529</v>
       </c>
       <c r="O2">
-        <v>0.1129009604634423</v>
+        <v>0.1216566842860732</v>
       </c>
       <c r="P2">
-        <v>0.1474950440045494</v>
+        <v>0.148762828988552</v>
       </c>
       <c r="Q2">
-        <v>1.099324329139111</v>
+        <v>0.262878025426</v>
       </c>
       <c r="R2">
-        <v>9.893918962251998</v>
+        <v>2.365902228834</v>
       </c>
       <c r="S2">
-        <v>0.00104930023864654</v>
+        <v>0.0003084588687125674</v>
       </c>
       <c r="T2">
-        <v>0.001379188841338844</v>
+        <v>0.0003802242287078008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H3">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I3">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J3">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.431815</v>
       </c>
       <c r="O3">
-        <v>0.1714513235002746</v>
+        <v>0.2991130341144489</v>
       </c>
       <c r="P3">
-        <v>0.223985875766749</v>
+        <v>0.3657579639239645</v>
       </c>
       <c r="Q3">
-        <v>1.669433195371111</v>
+        <v>0.6463290056655555</v>
       </c>
       <c r="R3">
-        <v>15.02489875834</v>
+        <v>5.816961050990001</v>
       </c>
       <c r="S3">
-        <v>0.001593466644806416</v>
+        <v>0.0007583970306404984</v>
       </c>
       <c r="T3">
-        <v>0.002094435257536385</v>
+        <v>0.0009348440109150324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H4">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I4">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J4">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.06161733333333334</v>
+        <v>0.111967</v>
       </c>
       <c r="N4">
-        <v>0.184852</v>
+        <v>0.335901</v>
       </c>
       <c r="O4">
-        <v>0.007151273248471058</v>
+        <v>0.02267070427625646</v>
       </c>
       <c r="P4">
-        <v>0.009342501234197522</v>
+        <v>0.02772193014375004</v>
       </c>
       <c r="Q4">
-        <v>0.06963243389688889</v>
+        <v>0.04898727932733333</v>
       </c>
       <c r="R4">
-        <v>0.626691905072</v>
+        <v>0.440885513946</v>
       </c>
       <c r="S4">
-        <v>6.646385199421807E-05</v>
+        <v>5.748126241487383E-05</v>
       </c>
       <c r="T4">
-        <v>8.735936545774493E-05</v>
+        <v>7.08547261359895E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H5">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I5">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J5">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.062687499999999</v>
+        <v>2.6997255</v>
       </c>
       <c r="N5">
-        <v>12.125375</v>
+        <v>5.399451</v>
       </c>
       <c r="O5">
-        <v>0.7036321208197347</v>
+        <v>0.5466314042313235</v>
       </c>
       <c r="P5">
-        <v>0.6128217758131248</v>
+        <v>0.4456170223863617</v>
       </c>
       <c r="Q5">
-        <v>6.851313806416666</v>
+        <v>1.181171302041</v>
       </c>
       <c r="R5">
-        <v>41.10788283849999</v>
+        <v>7.087027812246</v>
       </c>
       <c r="S5">
-        <v>0.006539548904321229</v>
+        <v>0.001385976492302433</v>
       </c>
       <c r="T5">
-        <v>0.005730341386283101</v>
+        <v>0.001138956483873804</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H6">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I6">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J6">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04191233333333333</v>
+        <v>0.04903366666666667</v>
       </c>
       <c r="N6">
-        <v>0.125737</v>
+        <v>0.147101</v>
       </c>
       <c r="O6">
-        <v>0.004864321968077193</v>
+        <v>0.009928173091897913</v>
       </c>
       <c r="P6">
-        <v>0.006354803181379123</v>
+        <v>0.01214025455737189</v>
       </c>
       <c r="Q6">
-        <v>0.04736423377022222</v>
+        <v>0.02145298101622222</v>
       </c>
       <c r="R6">
-        <v>0.4262781039319999</v>
+        <v>0.193076829146</v>
       </c>
       <c r="S6">
-        <v>4.52089528822896E-05</v>
+        <v>2.517274787062365E-05</v>
       </c>
       <c r="T6">
-        <v>5.942215683119724E-05</v>
+        <v>3.102938386408552E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.013073</v>
       </c>
       <c r="I7">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J7">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9727856666666664</v>
+        <v>0.600843</v>
       </c>
       <c r="N7">
-        <v>2.918356999999999</v>
+        <v>1.802529</v>
       </c>
       <c r="O7">
-        <v>0.1129009604634423</v>
+        <v>0.1216566842860732</v>
       </c>
       <c r="P7">
-        <v>0.1474950440045494</v>
+        <v>0.148762828988552</v>
       </c>
       <c r="Q7">
-        <v>0.9770247423401109</v>
+        <v>0.6034612735130001</v>
       </c>
       <c r="R7">
-        <v>8.793222681060998</v>
+        <v>5.431151461617</v>
       </c>
       <c r="S7">
-        <v>0.0009325658207745557</v>
+        <v>0.0007080963935194515</v>
       </c>
       <c r="T7">
-        <v>0.001225754389882992</v>
+        <v>0.000872840538514688</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.013073</v>
       </c>
       <c r="I8">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J8">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.431815</v>
       </c>
       <c r="O8">
-        <v>0.1714513235002746</v>
+        <v>0.2991130341144489</v>
       </c>
       <c r="P8">
-        <v>0.223985875766749</v>
+        <v>0.3657579639239645</v>
       </c>
       <c r="Q8">
         <v>1.483709124166111</v>
@@ -948,10 +948,10 @@
         <v>13.353382117495</v>
       </c>
       <c r="S8">
-        <v>0.001416193835434112</v>
+        <v>0.00174097183359902</v>
       </c>
       <c r="T8">
-        <v>0.001861429801562761</v>
+        <v>0.002146022500163644</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.013073</v>
       </c>
       <c r="I9">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J9">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06161733333333334</v>
+        <v>0.111967</v>
       </c>
       <c r="N9">
-        <v>0.184852</v>
+        <v>0.335901</v>
       </c>
       <c r="O9">
-        <v>0.007151273248471058</v>
+        <v>0.02267070427625646</v>
       </c>
       <c r="P9">
-        <v>0.009342501234197522</v>
+        <v>0.02772193014375004</v>
       </c>
       <c r="Q9">
-        <v>0.06188584113288889</v>
+        <v>0.1124549148636667</v>
       </c>
       <c r="R9">
-        <v>0.556972570196</v>
+        <v>1.012094233773</v>
       </c>
       <c r="S9">
-        <v>5.906976326125222E-05</v>
+        <v>0.0001319536532724729</v>
       </c>
       <c r="T9">
-        <v>7.764065550535829E-05</v>
+        <v>0.0001626536991791101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.013073</v>
       </c>
       <c r="I10">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J10">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.062687499999999</v>
+        <v>2.6997255</v>
       </c>
       <c r="N10">
-        <v>12.125375</v>
+        <v>5.399451</v>
       </c>
       <c r="O10">
-        <v>0.7036321208197347</v>
+        <v>0.5466314042313235</v>
       </c>
       <c r="P10">
-        <v>0.6128217758131248</v>
+        <v>0.4456170223863617</v>
       </c>
       <c r="Q10">
-        <v>6.089106671229166</v>
+        <v>2.7114900038205</v>
       </c>
       <c r="R10">
-        <v>36.53464002737499</v>
+        <v>16.268940022923</v>
       </c>
       <c r="S10">
-        <v>0.005812025545062314</v>
+        <v>0.003181639613081118</v>
       </c>
       <c r="T10">
-        <v>0.005092842183196739</v>
+        <v>0.002614581911594027</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>3.013073</v>
       </c>
       <c r="I11">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J11">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.04191233333333333</v>
+        <v>0.04903366666666667</v>
       </c>
       <c r="N11">
-        <v>0.125737</v>
+        <v>0.147101</v>
       </c>
       <c r="O11">
-        <v>0.004864321968077193</v>
+        <v>0.009928173091897913</v>
       </c>
       <c r="P11">
-        <v>0.006354803181379123</v>
+        <v>0.01214025455737189</v>
       </c>
       <c r="Q11">
-        <v>0.04209497331122222</v>
+        <v>0.04924733904144445</v>
       </c>
       <c r="R11">
-        <v>0.378854759801</v>
+        <v>0.443226051373</v>
       </c>
       <c r="S11">
-        <v>4.017946694209458E-05</v>
+        <v>5.778641430074347E-05</v>
       </c>
       <c r="T11">
-        <v>5.281145511694347E-05</v>
+        <v>7.123087398652068E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H12">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I12">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J12">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9727856666666664</v>
+        <v>0.600843</v>
       </c>
       <c r="N12">
-        <v>2.918356999999999</v>
+        <v>1.802529</v>
       </c>
       <c r="O12">
-        <v>0.1129009604634423</v>
+        <v>0.1216566842860732</v>
       </c>
       <c r="P12">
-        <v>0.1474950440045494</v>
+        <v>0.148762828988552</v>
       </c>
       <c r="Q12">
-        <v>66.32019818137854</v>
+        <v>59.832281610956</v>
       </c>
       <c r="R12">
-        <v>596.8817836324068</v>
+        <v>538.490534498604</v>
       </c>
       <c r="S12">
-        <v>0.06330233756702414</v>
+        <v>0.07020669707290744</v>
       </c>
       <c r="T12">
-        <v>0.08320390521946089</v>
+        <v>0.08654083235176195</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H13">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I13">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J13">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.431815</v>
       </c>
       <c r="O13">
-        <v>0.1714513235002746</v>
+        <v>0.2991130341144489</v>
       </c>
       <c r="P13">
-        <v>0.223985875766749</v>
+        <v>0.3657579639239645</v>
       </c>
       <c r="Q13">
-        <v>100.7138088668406</v>
+        <v>147.1075378691044</v>
       </c>
       <c r="R13">
-        <v>906.424279801565</v>
+        <v>1323.96784082194</v>
       </c>
       <c r="S13">
-        <v>0.09613088774423457</v>
+        <v>0.1726147502692979</v>
       </c>
       <c r="T13">
-        <v>0.1263533951501427</v>
+        <v>0.2127749173128554</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H14">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I14">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J14">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.06161733333333334</v>
+        <v>0.111967</v>
       </c>
       <c r="N14">
-        <v>0.184852</v>
+        <v>0.335901</v>
       </c>
       <c r="O14">
-        <v>0.007151273248471058</v>
+        <v>0.02267070427625646</v>
       </c>
       <c r="P14">
-        <v>0.009342501234197522</v>
+        <v>0.02772193014375004</v>
       </c>
       <c r="Q14">
-        <v>4.200795610072444</v>
+        <v>11.14973641223067</v>
       </c>
       <c r="R14">
-        <v>37.807160490652</v>
+        <v>100.347627710076</v>
       </c>
       <c r="S14">
-        <v>0.004009640939727234</v>
+        <v>0.01308300712692372</v>
       </c>
       <c r="T14">
-        <v>0.005270228518179163</v>
+        <v>0.01612687070654019</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H15">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I15">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J15">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.062687499999999</v>
+        <v>2.6997255</v>
       </c>
       <c r="N15">
-        <v>12.125375</v>
+        <v>5.399451</v>
       </c>
       <c r="O15">
-        <v>0.7036321208197347</v>
+        <v>0.5466314042313235</v>
       </c>
       <c r="P15">
-        <v>0.6128217758131248</v>
+        <v>0.4456170223863617</v>
       </c>
       <c r="Q15">
-        <v>413.3270568115208</v>
+        <v>268.840173536646</v>
       </c>
       <c r="R15">
-        <v>2479.962340869125</v>
+        <v>1613.041041219876</v>
       </c>
       <c r="S15">
-        <v>0.3945188584073618</v>
+        <v>0.3154548032655845</v>
       </c>
       <c r="T15">
-        <v>0.3457008694448351</v>
+        <v>0.2592318813081806</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H16">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I16">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J16">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.04191233333333333</v>
+        <v>0.04903366666666667</v>
       </c>
       <c r="N16">
-        <v>0.125737</v>
+        <v>0.147101</v>
       </c>
       <c r="O16">
-        <v>0.004864321968077193</v>
+        <v>0.009928173091897913</v>
       </c>
       <c r="P16">
-        <v>0.006354803181379123</v>
+        <v>0.01214025455737189</v>
       </c>
       <c r="Q16">
-        <v>2.857396390754111</v>
+        <v>4.882799920141778</v>
       </c>
       <c r="R16">
-        <v>25.71656751678699</v>
+        <v>43.945199281276</v>
       </c>
       <c r="S16">
-        <v>0.002727372291554774</v>
+        <v>0.005729436445195477</v>
       </c>
       <c r="T16">
-        <v>0.00358482852871645</v>
+        <v>0.007062434490527773</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H17">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I17">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J17">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9727856666666664</v>
+        <v>0.600843</v>
       </c>
       <c r="N17">
-        <v>2.918356999999999</v>
+        <v>1.802529</v>
       </c>
       <c r="O17">
-        <v>0.1129009604634423</v>
+        <v>0.1216566842860732</v>
       </c>
       <c r="P17">
-        <v>0.1474950440045494</v>
+        <v>0.148762828988552</v>
       </c>
       <c r="Q17">
-        <v>2.153916730705999</v>
+        <v>2.4852858274545</v>
       </c>
       <c r="R17">
-        <v>12.923500384236</v>
+        <v>14.911714964727</v>
       </c>
       <c r="S17">
-        <v>0.00205590404910304</v>
+        <v>0.002916213531053747</v>
       </c>
       <c r="T17">
-        <v>0.001801505307348866</v>
+        <v>0.002396462225731184</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H18">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I18">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J18">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>4.431815</v>
       </c>
       <c r="O18">
-        <v>0.1714513235002746</v>
+        <v>0.2991130341144489</v>
       </c>
       <c r="P18">
-        <v>0.223985875766749</v>
+        <v>0.3657579639239645</v>
       </c>
       <c r="Q18">
-        <v>3.27093651527</v>
+        <v>6.110485328890833</v>
       </c>
       <c r="R18">
-        <v>19.62561909162</v>
+        <v>36.662911973345</v>
       </c>
       <c r="S18">
-        <v>0.003122094522149137</v>
+        <v>0.007169992199918537</v>
       </c>
       <c r="T18">
-        <v>0.00273576476205218</v>
+        <v>0.005892097846375201</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H19">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I19">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J19">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.06161733333333334</v>
+        <v>0.111967</v>
       </c>
       <c r="N19">
-        <v>0.184852</v>
+        <v>0.335901</v>
       </c>
       <c r="O19">
-        <v>0.007151273248471058</v>
+        <v>0.02267070427625646</v>
       </c>
       <c r="P19">
-        <v>0.009342501234197522</v>
+        <v>0.02772193014375004</v>
       </c>
       <c r="Q19">
-        <v>0.136431497416</v>
+        <v>0.4631326290605</v>
       </c>
       <c r="R19">
-        <v>0.818588984496</v>
+        <v>2.778795774363</v>
       </c>
       <c r="S19">
-        <v>0.0001302232644206295</v>
+        <v>0.000543435939890279</v>
       </c>
       <c r="T19">
-        <v>0.000114109363273257</v>
+        <v>0.0004465803646350934</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H20">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I20">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J20">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.062687499999999</v>
+        <v>2.6997255</v>
       </c>
       <c r="N20">
-        <v>12.125375</v>
+        <v>5.399451</v>
       </c>
       <c r="O20">
-        <v>0.7036321208197347</v>
+        <v>0.5466314042313235</v>
       </c>
       <c r="P20">
-        <v>0.6128217758131248</v>
+        <v>0.4456170223863617</v>
       </c>
       <c r="Q20">
-        <v>13.423845032625</v>
+        <v>11.16695962700325</v>
       </c>
       <c r="R20">
-        <v>53.69538013049999</v>
+        <v>44.667838508013</v>
       </c>
       <c r="S20">
-        <v>0.01281300106158676</v>
+        <v>0.01310321670258427</v>
       </c>
       <c r="T20">
-        <v>0.007485008659357047</v>
+        <v>0.007178569865553599</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H21">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I21">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J21">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.04191233333333333</v>
+        <v>0.04903366666666667</v>
       </c>
       <c r="N21">
-        <v>0.125737</v>
+        <v>0.147101</v>
       </c>
       <c r="O21">
-        <v>0.004864321968077193</v>
+        <v>0.009928173091897913</v>
       </c>
       <c r="P21">
-        <v>0.006354803181379123</v>
+        <v>0.01214025455737189</v>
       </c>
       <c r="Q21">
-        <v>0.09280119874599999</v>
+        <v>0.2028194999938333</v>
       </c>
       <c r="R21">
-        <v>0.5568071924759999</v>
+        <v>1.216916999963</v>
       </c>
       <c r="S21">
-        <v>8.857833617411061E-05</v>
+        <v>0.0002379866990387046</v>
       </c>
       <c r="T21">
-        <v>7.761760224335965E-05</v>
+        <v>0.000195570772990217</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H22">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I22">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J22">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9727856666666664</v>
+        <v>0.600843</v>
       </c>
       <c r="N22">
-        <v>2.918356999999999</v>
+        <v>1.802529</v>
       </c>
       <c r="O22">
-        <v>0.1129009604634423</v>
+        <v>0.1216566842860732</v>
       </c>
       <c r="P22">
-        <v>0.1474950440045494</v>
+        <v>0.148762828988552</v>
       </c>
       <c r="Q22">
-        <v>47.73291006839188</v>
+        <v>40.495618116248</v>
       </c>
       <c r="R22">
-        <v>429.596190615527</v>
+        <v>364.460563046232</v>
       </c>
       <c r="S22">
-        <v>0.04556085278789408</v>
+        <v>0.04751721841988001</v>
       </c>
       <c r="T22">
-        <v>0.05988469024651783</v>
+        <v>0.05857246964383642</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H23">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I23">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J23">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>4.431815</v>
       </c>
       <c r="O23">
-        <v>0.1714513235002746</v>
+        <v>0.2991130341144489</v>
       </c>
       <c r="P23">
-        <v>0.223985875766749</v>
+        <v>0.3657579639239645</v>
       </c>
       <c r="Q23">
-        <v>72.48716549577389</v>
+        <v>99.56515972939113</v>
       </c>
       <c r="R23">
-        <v>652.384489461965</v>
+        <v>896.08643756452</v>
       </c>
       <c r="S23">
-        <v>0.06918868075365038</v>
+        <v>0.116828922780993</v>
       </c>
       <c r="T23">
-        <v>0.09094085079545493</v>
+        <v>0.1440100822536552</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H24">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I24">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J24">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.06161733333333334</v>
+        <v>0.111967</v>
       </c>
       <c r="N24">
-        <v>0.184852</v>
+        <v>0.335901</v>
       </c>
       <c r="O24">
-        <v>0.007151273248471058</v>
+        <v>0.02267070427625646</v>
       </c>
       <c r="P24">
-        <v>0.009342501234197522</v>
+        <v>0.02772193014375004</v>
       </c>
       <c r="Q24">
-        <v>3.023455969219111</v>
+        <v>7.546352164578667</v>
       </c>
       <c r="R24">
-        <v>27.211103722972</v>
+        <v>67.91716948120801</v>
       </c>
       <c r="S24">
-        <v>0.002885875429067725</v>
+        <v>0.008854826293755115</v>
       </c>
       <c r="T24">
-        <v>0.003793163331781998</v>
+        <v>0.01091497064725965</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H25">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I25">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J25">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.062687499999999</v>
+        <v>2.6997255</v>
       </c>
       <c r="N25">
-        <v>12.125375</v>
+        <v>5.399451</v>
       </c>
       <c r="O25">
-        <v>0.7036321208197347</v>
+        <v>0.5466314042313235</v>
       </c>
       <c r="P25">
-        <v>0.6128217758131248</v>
+        <v>0.4456170223863617</v>
       </c>
       <c r="Q25">
-        <v>297.4855891965208</v>
+        <v>181.956106448268</v>
       </c>
       <c r="R25">
-        <v>1784.913535179125</v>
+        <v>1091.736638689608</v>
       </c>
       <c r="S25">
-        <v>0.2839486869014027</v>
+        <v>0.2135057681577713</v>
       </c>
       <c r="T25">
-        <v>0.2488127141394528</v>
+        <v>0.1754530328171598</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H26">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I26">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J26">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.04191233333333333</v>
+        <v>0.04903366666666667</v>
       </c>
       <c r="N26">
-        <v>0.125737</v>
+        <v>0.147101</v>
       </c>
       <c r="O26">
-        <v>0.004864321968077193</v>
+        <v>0.009928173091897913</v>
       </c>
       <c r="P26">
-        <v>0.006354803181379123</v>
+        <v>0.01214025455737189</v>
       </c>
       <c r="Q26">
-        <v>2.056565702300778</v>
+        <v>3.304771196756445</v>
       </c>
       <c r="R26">
-        <v>18.509091320707</v>
+        <v>29.742940770808</v>
       </c>
       <c r="S26">
-        <v>0.001962982920523924</v>
+        <v>0.003877790785492366</v>
       </c>
       <c r="T26">
-        <v>0.002580123438471171</v>
+        <v>0.004779989036003294</v>
       </c>
     </row>
   </sheetData>
